--- a/IdUnico - enviado para o professor/praticaAquisicao.xlsx
+++ b/IdUnico - enviado para o professor/praticaAquisicao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chips" sheetId="1" state="visible" r:id="rId2"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Matriz Escolha Empresas</t>
   </si>
@@ -382,6 +382,12 @@
     <t>Construção de 200mi de chips</t>
   </si>
   <si>
+    <t>Portfólio em construção de chips similares </t>
+  </si>
+  <si>
+    <t>Ter distribuidora para entregas em todo território nacional </t>
+  </si>
+  <si>
     <t>Variáveis Desejáveis</t>
   </si>
   <si>
@@ -412,6 +418,9 @@
     <t>Construção de 20mi de leitores</t>
   </si>
   <si>
+    <t>Portfólio em construção de leitores portáteis </t>
+  </si>
+  <si>
     <t>leitor móvel não deve pesar mais do que 500gramas </t>
   </si>
   <si>
@@ -421,7 +430,7 @@
     <t>Empresa com pelo menos 5 anos de mercado</t>
   </si>
   <si>
-    <t>Custo por leitor entregue em  XX reais</t>
+    <t>Custo por leitor entregue em  no máximo 7 reais</t>
   </si>
   <si>
     <t>Contratação de empresa de publicidade e propaganda</t>
@@ -431,6 +440,9 @@
   </si>
   <si>
     <t>Campanhas com alcance em todo território nacional </t>
+  </si>
+  <si>
+    <t>Conseguir produzir todas as publicações no período de uma semana</t>
   </si>
   <si>
     <t>Publicações em todas as faixas de horários</t>
@@ -482,13 +494,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="20"/>
       <color rgb="FF000000"/>
@@ -513,6 +518,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -619,87 +631,87 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,7 +723,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -728,7 +740,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -767,7 +779,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -790,12 +802,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF33FF99"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L22"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -815,6 +828,19 @@
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.6734693877551"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -830,6 +856,19 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+    </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -852,6 +891,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
@@ -884,7 +927,9 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -894,7 +939,9 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -915,33 +962,33 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="15" t="n">
         <v>5</v>
@@ -970,7 +1017,7 @@
     </row>
     <row r="13" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="19" t="n">
         <v>5</v>
@@ -999,7 +1046,7 @@
     </row>
     <row r="14" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="15" t="n">
         <v>4</v>
@@ -1197,21 +1244,21 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F22" s="23" t="n">
         <f aca="false">SUM(F12:F21)</f>
         <v>0</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I22" s="23" t="n">
         <f aca="false">SUM(I12:I21)</f>
         <v>0</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L22" s="23" t="n">
         <f aca="false">SUM(L12:L21)</f>
@@ -1257,12 +1304,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF3300"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L22"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1282,6 +1330,19 @@
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.6734693877551"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1297,9 +1358,22 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+    </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1319,6 +1393,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
@@ -1340,7 +1418,7 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8"/>
       <c r="E7" s="9"/>
@@ -1351,7 +1429,9 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1361,7 +1441,9 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1382,33 +1464,33 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="15" t="n">
         <v>3</v>
@@ -1437,7 +1519,7 @@
     </row>
     <row r="13" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="19" t="n">
         <v>5</v>
@@ -1466,7 +1548,7 @@
     </row>
     <row r="14" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" s="15" t="n">
         <v>5</v>
@@ -1495,7 +1577,7 @@
     </row>
     <row r="15" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" s="19" t="n">
         <v>4</v>
@@ -1524,9 +1606,11 @@
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="E16" s="16" t="n">
         <v>0</v>
       </c>
@@ -1670,21 +1754,21 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F22" s="23" t="n">
         <f aca="false">SUM(F12:F21)</f>
         <v>0</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I22" s="23" t="n">
         <f aca="false">SUM(I12:I21)</f>
         <v>0</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L22" s="23" t="n">
         <f aca="false">SUM(L12:L21)</f>
@@ -1730,12 +1814,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF0066CC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L22"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1755,6 +1840,19 @@
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.6734693877551"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1770,9 +1868,22 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+    </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1792,6 +1903,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
@@ -1813,7 +1928,7 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8"/>
       <c r="E7" s="9"/>
@@ -1825,7 +1940,7 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10"/>
       <c r="E8" s="11"/>
@@ -1836,7 +1951,9 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1857,33 +1974,33 @@
     </row>
     <row r="11" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12" s="18" t="n">
         <v>5</v>
@@ -1912,7 +2029,7 @@
     </row>
     <row r="13" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="14" t="n">
         <v>4</v>
@@ -1941,7 +2058,7 @@
     </row>
     <row r="14" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="18" t="n">
         <v>3</v>
@@ -1970,7 +2087,7 @@
     </row>
     <row r="15" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" s="14" t="n">
         <v>5</v>
@@ -1999,7 +2116,7 @@
     </row>
     <row r="16" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C16" s="18" t="n">
         <v>3</v>
@@ -2147,21 +2264,21 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F22" s="23" t="n">
         <f aca="false">SUM(F12:F21)</f>
         <v>0</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I22" s="23" t="n">
         <f aca="false">SUM(I12:I21)</f>
         <v>0</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L22" s="23" t="n">
         <f aca="false">SUM(L12:L21)</f>
